--- a/KNeighbors_Molecular_Descriptor.xlsx
+++ b/KNeighbors_Molecular_Descriptor.xlsx
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1025,13 +1025,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
